--- a/biology/Zoologie/L'Empereur_(film)/L'Empereur_(film).xlsx
+++ b/biology/Zoologie/L'Empereur_(film)/L'Empereur_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Empereur_(film)</t>
+          <t>L'Empereur_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Empereur est un documentaire français réalisé par Luc Jacquet, sorti le 15 février 2017.
 Parfois présenté comme une suite de La Marche de l'empereur, sorti en 2005, il a été initialement annoncé sous plusieurs titres provisoires, comme La Marche de l'empereur 2 ou La Marche de l'empereur : l'appel de l'Antarctique. Il s'agit du cinquième long métrage cinématographique de Luc Jacquet et du troisième consacré à l'Antarctique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Empereur_(film)</t>
+          <t>L'Empereur_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un tout jeune manchot empereur apprend à vivre dans l'environnement hostile de l'Antarctique, sous le regard de son père qui veille sur les premiers mois de sa vie.
 Après plusieurs mois sur la banquise, où ses parents l'ont protégé et alimenté, il rejoint instinctivement l'océan, situé à plusieurs dizaines de kilomètres de là où il est né.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Empereur_(film)</t>
+          <t>L'Empereur_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : L'Empereur
 Réalisation : Luc Jacquet
@@ -559,7 +575,7 @@
 Format : couleur - Dolby 5.1
 Durée : 82 minutes
 Dates de sortie :
-France :  20 janvier 2017 (avant-premières mondiales à Ambérieu-en-Bugey[1] et Mâcon[2]) ; 15 février 2017 (sortie nationale) ; 6 septembre 2017 (sortie en vidéo)[3])
+France :  20 janvier 2017 (avant-premières mondiales à Ambérieu-en-Bugey et Mâcon) ; 15 février 2017 (sortie nationale) ; 6 septembre 2017 (sortie en vidéo))
 Belgique : 15 février 2017
 Italie : 23 février 2017
 Allemagne : 2 novembre 2017</t>
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Empereur_(film)</t>
+          <t>L'Empereur_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Version originale :
 Lambert Wilson : narrateur
@@ -615,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Empereur_(film)</t>
+          <t>L'Empereur_(film)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,10 +653,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-Le film reçoit un accueil critique globalement favorable. Le site Allociné propose une moyenne de 3,5/5 à partir de l'interprétation de 19 critiques[4].
-Box-office
-Le film a dépassé les 260 000 entrées en France[5], ce qui constitue un échec[3]. Le film réalise près de la moitié de ses entrées lors de sa première semaine d'exploitation en terminant à la 13e place du box-office hebdomadaire national[3]. Il recueille près d'1,5 million de dollars de recettes dans le monde, essentiellement en France[5].
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit un accueil critique globalement favorable. Le site Allociné propose une moyenne de 3,5/5 à partir de l'interprétation de 19 critiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L'Empereur_(film)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Empereur_(film)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a dépassé les 260 000 entrées en France, ce qui constitue un échec. Le film réalise près de la moitié de ses entrées lors de sa première semaine d'exploitation en terminant à la 13e place du box-office hebdomadaire national. Il recueille près d'1,5 million de dollars de recettes dans le monde, essentiellement en France.
 </t>
         </is>
       </c>
